--- a/files/bstf_report.xlsx
+++ b/files/bstf_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Economic Relations Division</t>
   </si>
@@ -56,7 +56,7 @@
     <t>i) Acceptance letter
 Followship/Scholarship Award Letter
 Enrolement Certificate
-Copy of the duly signed I-20 form if the enrolling education institute is located in USA or 
+ii) Copy of the duly signed I-20 form if the enrolling education institute is located in USA or 
 TOFEL/IELTS/SAT/GRE/GMAT</t>
   </si>
   <si>
@@ -91,99 +91,144 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Mohammad Abdullah Junayeed
-S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-Test Address
+    <t>i) Mohammad Abdullah Junayeed
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) Test Address
 Ph: 01730448801
 junayeed12@gmail.com
-(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>Mohammad Abdullah Junayeed</t>
-  </si>
-  <si>
-    <t>SAM Harun
-S/o. Masum, adasd
-AEAE
+iv) 145000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>i) ----
+ii)</t>
+  </si>
+  <si>
+    <t>University of Brussels
+Test text
+Test Address</t>
+  </si>
+  <si>
+    <t>i)Acceptance Letter attached
+Scholarship Letter attached
+ii)----</t>
+  </si>
+  <si>
+    <t>i) SAM Harun
+ii) S/o. Masum, adasd
+iii) AEAE
 Ph: 23234234
 sharmi121283@gmail.com
-(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>SAM Harun</t>
-  </si>
-  <si>
-    <t>Mohammad Shahneawz Khan
-S/o. Md. Shahabuddin Khan, Service holder (Retired)
-205, Avenue  De La Couroone
+iv) 111111(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>Politecnico di Milano
+SDFSDFSDF
+FSFSDF</t>
+  </si>
+  <si>
+    <t>i) Mohammad Shahneawz Khan
+ii) S/o. Md. Shahabuddin Khan, Service holder (Retired)
+iii) 205, Avenue  De La Couroone
 1050 Brussels, Belgium
 Ph: 1008800
 shahneawz@gmail.com
-(Income Certificate not attached)</t>
-  </si>
-  <si>
-    <t>Mohammad Shahneawz Khan</t>
+iv) 2147483647(Income Certificate not attached)</t>
+  </si>
+  <si>
+    <t>Catholique University de Leuven (UCL)
+Moleculer Biology
+Professor Patrice Soumellion
+ISV, BGMB, UCL, 
+Leuven La Neuve, Belgium</t>
+  </si>
+  <si>
+    <t>i)Acceptance Letter not attached
+Scholarship Letter not attached
+ii)----</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Tani Thoust
-S/o. Masum, adasd
-adad
+    <t>i) Tani Thoust
+ii) S/o. Masum, adasd
+iii) adad
 Ph: 01817590446
 tania@thecfd.co.uk
-(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>Tani Thoust</t>
+iv) 1111112(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Germany
+asdasd
+asdasd</t>
   </si>
   <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>sdsd Harun
-S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-Test Address
+    <t>i) sdsd Harun
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) Test Address
 Ph: 327654829
 sharmi@gmail.com
-(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>sdsd Harun</t>
+iv) 145000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Finland
+Test Address
+Test Address</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Mohammad Abdullah Junayeed edit
-S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-Shamoli TEST
+    <t>i) Mohammad Abdullah Junayeed edit
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) Shamoli TEST
 Ph: 01730448801
 junayeed3@gmail.com
-(Income Certificate not attached)</t>
-  </si>
-  <si>
-    <t>Mohammad Abdullah Junayeed edit</t>
-  </si>
-  <si>
-    <t>sdsd Harun
-S/o. Masum, adasd
-sdf
+iv) 1000008834(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>Politecnico di Milano, Italy
+This is a test
+Junayeed. This is a test.
+This is a test. This is a test subject description.This is a test.
+This is a test. This is a test subject description
+This is a test.
+This is a test. This is a test subject description
+Sam Harun  sdsdsdsdsd
+01714116624
+samharun@gmail.com</t>
+  </si>
+  <si>
+    <t>i) sdsd Harun
+ii) S/o. Masum, adasd
+iii) sdf
 Ph: 01817590446
 junayeed111@gmail.com
-(Income Certificate attached)</t>
+iv) 10000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>Politecnico di Milano
+Test
+Test</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>SAM Harun
-S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-dcdcd
+    <t>i) SAM Harun
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) dcdcd
 Ph: 545234
 junayeed113@gmail.com
-(Income Certificate attached)</t>
+iv) 145000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Finland
+tgtgtgt
+gtgtg</t>
   </si>
 </sst>
 </file>
@@ -221,7 +266,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="15"/>
+      <sz val="14"/>
       <b val="1"/>
       <i val="1"/>
       <u val="none"/>
@@ -785,14 +830,16 @@
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="3" t="s"/>
       <c r="E12" s="3" t="s"/>
       <c r="F12" s="3" t="s"/>
       <c r="G12" s="3" t="s"/>
-      <c r="H12" s="3" t="s"/>
-      <c r="I12" s="3" t="s"/>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J12" s="3" t="s"/>
       <c r="K12" s="3" t="s"/>
       <c r="L12" s="3" t="s"/>
@@ -803,19 +850,21 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s"/>
       <c r="E13" s="3" t="s"/>
       <c r="F13" s="3" t="s"/>
       <c r="G13" s="3" t="s"/>
-      <c r="H13" s="3" t="s"/>
-      <c r="I13" s="3" t="s"/>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="3" t="s"/>
       <c r="K13" s="3" t="s"/>
       <c r="L13" s="3" t="s"/>
@@ -826,19 +875,21 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s"/>
       <c r="E14" s="3" t="s"/>
       <c r="F14" s="3" t="s"/>
       <c r="G14" s="3" t="s"/>
-      <c r="H14" s="3" t="s"/>
-      <c r="I14" s="3" t="s"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J14" s="3" t="s"/>
       <c r="K14" s="3" t="s"/>
       <c r="L14" s="3" t="s"/>
@@ -847,7 +898,7 @@
     <row r="15" spans="1:13">
       <c r="A15" s="4" t="s"/>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -866,19 +917,21 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s"/>
       <c r="E16" s="3" t="s"/>
       <c r="F16" s="3" t="s"/>
       <c r="G16" s="3" t="s"/>
-      <c r="H16" s="3" t="s"/>
-      <c r="I16" s="3" t="s"/>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J16" s="3" t="s"/>
       <c r="K16" s="3" t="s"/>
       <c r="L16" s="3" t="s"/>
@@ -887,7 +940,7 @@
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s"/>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -906,19 +959,21 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s"/>
       <c r="E18" s="3" t="s"/>
       <c r="F18" s="3" t="s"/>
       <c r="G18" s="3" t="s"/>
-      <c r="H18" s="3" t="s"/>
-      <c r="I18" s="3" t="s"/>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J18" s="3" t="s"/>
       <c r="K18" s="3" t="s"/>
       <c r="L18" s="3" t="s"/>
@@ -927,7 +982,7 @@
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s"/>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -946,19 +1001,21 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s"/>
       <c r="E20" s="3" t="s"/>
       <c r="F20" s="3" t="s"/>
       <c r="G20" s="3" t="s"/>
-      <c r="H20" s="3" t="s"/>
-      <c r="I20" s="3" t="s"/>
+      <c r="H20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J20" s="3" t="s"/>
       <c r="K20" s="3" t="s"/>
       <c r="L20" s="3" t="s"/>
@@ -969,19 +1026,21 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s"/>
       <c r="E21" s="3" t="s"/>
       <c r="F21" s="3" t="s"/>
       <c r="G21" s="3" t="s"/>
-      <c r="H21" s="3" t="s"/>
-      <c r="I21" s="3" t="s"/>
+      <c r="H21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J21" s="3" t="s"/>
       <c r="K21" s="3" t="s"/>
       <c r="L21" s="3" t="s"/>
@@ -990,7 +1049,7 @@
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s"/>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1009,19 +1068,21 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s"/>
       <c r="E23" s="3" t="s"/>
       <c r="F23" s="3" t="s"/>
       <c r="G23" s="3" t="s"/>
-      <c r="H23" s="3" t="s"/>
-      <c r="I23" s="3" t="s"/>
+      <c r="H23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J23" s="3" t="s"/>
       <c r="K23" s="3" t="s"/>
       <c r="L23" s="3" t="s"/>

--- a/files/bstf_report.xlsx
+++ b/files/bstf_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Economic Relations Division</t>
   </si>
@@ -104,8 +104,16 @@
   </si>
   <si>
     <t>University of Brussels
-Test text
-Test Address</t>
+This is a test
+Junayeed. This is a test.This is a test
+Junayeed. This is a test.This is a test
+Junayeed. This is a test.This is a test
+Junayeed. This is a test.This is a test
+Junayeed. This is a test.This is a test
+Junayeed. This is a test.
+Professor Patrice Soumellion
+ISV, BGMB, UCL, 
+Leuven La Neuve, Belgium</t>
   </si>
   <si>
     <t>i)Acceptance Letter attached
@@ -145,90 +153,6 @@
     <t>i)Acceptance Letter not attached
 Scholarship Letter not attached
 ii)----</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>i) Tani Thoust
-ii) S/o. Masum, adasd
-iii) adad
-Ph: 01817590446
-tania@thecfd.co.uk
-iv) 1111112(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>University of Germany
-asdasd
-asdasd</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>i) sdsd Harun
-ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-iii) Test Address
-Ph: 327654829
-sharmi@gmail.com
-iv) 145000(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>University of Finland
-Test Address
-Test Address</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>i) Mohammad Abdullah Junayeed edit
-ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-iii) Shamoli TEST
-Ph: 01730448801
-junayeed3@gmail.com
-iv) 1000008834(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>Politecnico di Milano, Italy
-This is a test
-Junayeed. This is a test.
-This is a test. This is a test subject description.This is a test.
-This is a test. This is a test subject description
-This is a test.
-This is a test. This is a test subject description
-Sam Harun  sdsdsdsdsd
-01714116624
-samharun@gmail.com</t>
-  </si>
-  <si>
-    <t>i) sdsd Harun
-ii) S/o. Masum, adasd
-iii) sdf
-Ph: 01817590446
-junayeed111@gmail.com
-iv) 10000(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>Politecnico di Milano
-Test
-Test</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>i) SAM Harun
-ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
-iii) dcdcd
-Ph: 545234
-junayeed113@gmail.com
-iv) 145000(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>University of Finland
-tgtgtgt
-gtgtg</t>
   </si>
 </sst>
 </file>
@@ -624,7 +548,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -895,199 +819,6 @@
       <c r="L14" s="3" t="s"/>
       <c r="M14" s="5" t="s"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s"/>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s"/>
-      <c r="E16" s="3" t="s"/>
-      <c r="F16" s="3" t="s"/>
-      <c r="G16" s="3" t="s"/>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="3" t="s"/>
-      <c r="K16" s="3" t="s"/>
-      <c r="L16" s="3" t="s"/>
-      <c r="M16" s="5" t="s"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s"/>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s"/>
-      <c r="E18" s="3" t="s"/>
-      <c r="F18" s="3" t="s"/>
-      <c r="G18" s="3" t="s"/>
-      <c r="H18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="3" t="s"/>
-      <c r="K18" s="3" t="s"/>
-      <c r="L18" s="3" t="s"/>
-      <c r="M18" s="5" t="s"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s"/>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3" t="s"/>
-      <c r="E20" s="3" t="s"/>
-      <c r="F20" s="3" t="s"/>
-      <c r="G20" s="3" t="s"/>
-      <c r="H20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="3" t="s"/>
-      <c r="K20" s="3" t="s"/>
-      <c r="L20" s="3" t="s"/>
-      <c r="M20" s="5" t="s"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s"/>
-      <c r="E21" s="3" t="s"/>
-      <c r="F21" s="3" t="s"/>
-      <c r="G21" s="3" t="s"/>
-      <c r="H21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="3" t="s"/>
-      <c r="K21" s="3" t="s"/>
-      <c r="L21" s="3" t="s"/>
-      <c r="M21" s="5" t="s"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s"/>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s"/>
-      <c r="E23" s="3" t="s"/>
-      <c r="F23" s="3" t="s"/>
-      <c r="G23" s="3" t="s"/>
-      <c r="H23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="3" t="s"/>
-      <c r="K23" s="3" t="s"/>
-      <c r="L23" s="3" t="s"/>
-      <c r="M23" s="5" t="s"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -1108,10 +839,6 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B22:M22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/bstf_report.xlsx
+++ b/files/bstf_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Economic Relations Division</t>
   </si>
@@ -132,6 +132,120 @@
     <t>Politecnico di Milano
 SDFSDFSDF
 FSFSDF</t>
+  </si>
+  <si>
+    <t>i) Mohammad Harun
+ii) S/o. sdf, sf
+iii) dsf asdas sdfsdf  dfdfdfd ddddddddddddd
+Ph: 45234234234
+junayeed2@gmail.com
+iv) 345345(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>sdfsdfsdf
+ert
+ert sdfsdf1</t>
+  </si>
+  <si>
+    <t>i) Salma Akhter
+ii) S/o. Masum, adasd
+iii) test
+Ph: 2312123123
+salma@test.com
+iv) 400000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Brussels
+This is a test study. This is a test study. This is a test study. 
+This is a test study. This is a test study. This is a test study. This is a test study. This is a test study.
+Salma Akhter, adhaasdh
+adashasd
+asdasda
+asdasdasd</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>i) Tani Thoust
+ii) S/o. Masum, adasd
+iii) adad
+Ph: 01817590446
+tania@thecfd.co.uk
+iv) 1111112(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Germany
+asdasd
+asdasd</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>i) sdsd Harun
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) Test Address
+Ph: 327654829
+sharmi@gmail.com
+iv) 145000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Finland
+Test Address
+Test Address</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>i) Mohammad Abdullah Junayeed edit
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) Shamoli TEST
+Ph: 01730448801
+junayeed3@gmail.com
+iv) 1000008834(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>Politecnico di Milano, Italy
+This is a test
+Junayeed. This is a test.
+This is a test. This is a test subject description.This is a test.
+This is a test. This is a test subject description
+This is a test.
+This is a test. This is a test subject description
+Sam Harun  sdsdsdsdsd
+01714116624
+samharun@gmail.com</t>
+  </si>
+  <si>
+    <t>i) sdsd Harun
+ii) S/o. Masum, adasd
+iii) sdf
+Ph: 01817590446
+junayeed111@gmail.com
+iv) 10000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>Politecnico di Milano
+Test
+Test</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>i) SAM Harun
+ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
+iii) dcdcd
+Ph: 545234
+junayeed113@gmail.com
+iv) 145000(Income Certificate attached)</t>
+  </si>
+  <si>
+    <t>University of Finland
+tgtgtgt
+gtgtg</t>
   </si>
   <si>
     <t>i) Mohammad Shahneawz Khan
@@ -548,7 +662,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -812,12 +926,255 @@
         <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J14" s="3" t="s"/>
       <c r="K14" s="3" t="s"/>
       <c r="L14" s="3" t="s"/>
       <c r="M14" s="5" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s"/>
+      <c r="E15" s="3" t="s"/>
+      <c r="F15" s="3" t="s"/>
+      <c r="G15" s="3" t="s"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s"/>
+      <c r="K15" s="3" t="s"/>
+      <c r="L15" s="3" t="s"/>
+      <c r="M15" s="5" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s"/>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s"/>
+      <c r="E17" s="3" t="s"/>
+      <c r="F17" s="3" t="s"/>
+      <c r="G17" s="3" t="s"/>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s"/>
+      <c r="K17" s="3" t="s"/>
+      <c r="L17" s="3" t="s"/>
+      <c r="M17" s="5" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s"/>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s"/>
+      <c r="E19" s="3" t="s"/>
+      <c r="F19" s="3" t="s"/>
+      <c r="G19" s="3" t="s"/>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3" t="s"/>
+      <c r="K19" s="3" t="s"/>
+      <c r="L19" s="3" t="s"/>
+      <c r="M19" s="5" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s"/>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s"/>
+      <c r="E21" s="3" t="s"/>
+      <c r="F21" s="3" t="s"/>
+      <c r="G21" s="3" t="s"/>
+      <c r="H21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s"/>
+      <c r="K21" s="3" t="s"/>
+      <c r="L21" s="3" t="s"/>
+      <c r="M21" s="5" t="s"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s"/>
+      <c r="E22" s="3" t="s"/>
+      <c r="F22" s="3" t="s"/>
+      <c r="G22" s="3" t="s"/>
+      <c r="H22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s"/>
+      <c r="K22" s="3" t="s"/>
+      <c r="L22" s="3" t="s"/>
+      <c r="M22" s="5" t="s"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s"/>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s"/>
+      <c r="E24" s="3" t="s"/>
+      <c r="F24" s="3" t="s"/>
+      <c r="G24" s="3" t="s"/>
+      <c r="H24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="3" t="s"/>
+      <c r="K24" s="3" t="s"/>
+      <c r="L24" s="3" t="s"/>
+      <c r="M24" s="5" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s"/>
+      <c r="E25" s="3" t="s"/>
+      <c r="F25" s="3" t="s"/>
+      <c r="G25" s="3" t="s"/>
+      <c r="H25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="3" t="s"/>
+      <c r="K25" s="3" t="s"/>
+      <c r="L25" s="3" t="s"/>
+      <c r="M25" s="5" t="s"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -839,6 +1196,10 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B23:M23"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/bstf_report.xlsx
+++ b/files/bstf_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Economic Relations Division</t>
   </si>
@@ -67,7 +67,7 @@
 Total-</t>
   </si>
   <si>
-    <t>Air fare received from Bangladesh Biman</t>
+    <t>Air fare received from local sources</t>
   </si>
   <si>
     <t>75% of one way Air fare</t>
@@ -91,16 +91,23 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>i) Mohammad Abdullah Junayeed
+    <t xml:space="preserve">i) Mohammad Abdullah Junayeed
 ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
 iii) Test Address
 Ph: 01730448801
 junayeed12@gmail.com
-iv) 145000(Income Certificate attached)</t>
-  </si>
-  <si>
-    <t>i) ----
-ii)</t>
+iv) 145000(Income Certificate attached)
+</t>
+  </si>
+  <si>
+    <t>i)No
+ii)Certificate Submitted</t>
+  </si>
+  <si>
+    <t>1st Division</t>
+  </si>
+  <si>
+    <t>3.69 out of 4</t>
   </si>
   <si>
     <t>University of Brussels
@@ -116,17 +123,36 @@
 Leuven La Neuve, Belgium</t>
   </si>
   <si>
-    <t>i)Acceptance Letter attached
+    <t xml:space="preserve">i)Acceptance Letter attached
 Scholarship Letter attached
-ii)----</t>
-  </si>
-  <si>
-    <t>i) SAM Harun
+ii)TOFEL-10
+IELTS-11
+SAT-12.12
+GRE-13.13
+GMAT-14.14
+</t>
+  </si>
+  <si>
+    <t>Air Ticket not attached
+Fare-45690
+Tax-1290
+Total-46980
+Brussels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) SAM Harun
 ii) S/o. Masum, adasd
 iii) AEAE
 Ph: 23234234
 sharmi121283@gmail.com
-iv) 111111(Income Certificate attached)</t>
+iv) 111111(Income Certificate attached)
+</t>
+  </si>
+  <si>
+    <t>2nd Division</t>
+  </si>
+  <si>
+    <t>3rd Division</t>
   </si>
   <si>
     <t>Politecnico di Milano
@@ -134,12 +160,25 @@
 FSFSDF</t>
   </si>
   <si>
-    <t>i) Mohammad Harun
+    <t>i)Acceptance Letter attached
+Scholarship Letter attached
+ii)</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-89000
+Tax-3000
+Total-92000
+Ghent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) Mohammad Harun
 ii) S/o. sdf, sf
 iii) dsf asdas sdfsdf  dfdfdfd ddddddddddddd
 Ph: 45234234234
 junayeed2@gmail.com
-iv) 345345(Income Certificate attached)</t>
+iv) 345345(Income Certificate attached)
+</t>
   </si>
   <si>
     <t>sdfsdfsdf
@@ -147,12 +186,29 @@
 ert sdfsdf1</t>
   </si>
   <si>
-    <t>i) Salma Akhter
+    <t xml:space="preserve">i)Acceptance Letter attached
+Scholarship Letter attached
+ii)GRE-90
+</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-35000
+Tax-2341
+Total-37341
+Brussels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) Salma Akhter
 ii) S/o. Masum, adasd
 iii) test
 Ph: 2312123123
 salma@test.com
-iv) 400000(Income Certificate attached)</t>
+iv) 400000(Income Certificate attached)
+</t>
+  </si>
+  <si>
+    <t>1st division</t>
   </si>
   <si>
     <t>University of Brussels
@@ -164,15 +220,29 @@
 asdasdasd</t>
   </si>
   <si>
+    <t xml:space="preserve">i)Acceptance Letter attached
+Scholarship Letter attached
+ii)IELTS-6.5
+</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-34000
+Tax-2300
+Total-36300
+Brussels</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>i) Tani Thoust
+    <t xml:space="preserve">i) Tani Thoust
 ii) S/o. Masum, adasd
 iii) adad
 Ph: 01817590446
 tania@thecfd.co.uk
-iv) 1111112(Income Certificate attached)</t>
+iv) 1111112(Income Certificate attached)
+</t>
   </si>
   <si>
     <t>University of Germany
@@ -180,15 +250,23 @@
 asdasd</t>
   </si>
   <si>
+    <t>Air Ticket not attached
+Fare-89000
+Tax-3000
+Total-92000
+Berlin</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>i) sdsd Harun
+    <t xml:space="preserve">i) sdsd Harun
 ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
 iii) Test Address
 Ph: 327654829
 sharmi@gmail.com
-iv) 145000(Income Certificate attached)</t>
+iv) 145000(Income Certificate attached)
+</t>
   </si>
   <si>
     <t>University of Finland
@@ -196,15 +274,23 @@
 Test Address</t>
   </si>
   <si>
+    <t>Air Ticket attached
+Fare-70000
+Tax-10000
+Total-80000
+Helsinki</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>i) Mohammad Abdullah Junayeed edit
+    <t xml:space="preserve">i) Mohammad Abdullah Junayeed edit
 ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
 iii) Shamoli TEST
 Ph: 01730448801
 junayeed3@gmail.com
-iv) 1000008834(Income Certificate attached)</t>
+iv) 1000008834(Income Certificate attached)
+</t>
   </si>
   <si>
     <t>Politecnico di Milano, Italy
@@ -219,12 +305,30 @@
 samharun@gmail.com</t>
   </si>
   <si>
-    <t>i) sdsd Harun
+    <t xml:space="preserve">i)Acceptance Letter attached
+Scholarship Letter attached
+ii)TOFEL-10.1
+IELTS-11.11
+SAT-12.12
+GRE-13.13
+GMAT-14.14
+</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-80000
+Tax-10000
+Total-90000
+Milan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) sdsd Harun
 ii) S/o. Masum, adasd
 iii) sdf
 Ph: 01817590446
 junayeed111@gmail.com
-iv) 10000(Income Certificate attached)</t>
+iv) 10000(Income Certificate attached)
+</t>
   </si>
   <si>
     <t>Politecnico di Milano
@@ -232,15 +336,33 @@
 Test</t>
   </si>
   <si>
+    <t xml:space="preserve">i)Acceptance Letter attached
+Scholarship Letter attached
+ii)TOFEL-110
+IELTS-7.5
+SAT-343
+GRE-232
+GMAT-121
+</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-89000
+Tax-3000
+Total-92000
+Turin</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>i) SAM Harun
+    <t xml:space="preserve">i) SAM Harun
 ii) S/o. Masum Saifur Rahman, Rtd. Govt. Officer
 iii) dcdcd
 Ph: 545234
 junayeed113@gmail.com
-iv) 145000(Income Certificate attached)</t>
+iv) 145000(Income Certificate attached)
+</t>
   </si>
   <si>
     <t>University of Finland
@@ -248,13 +370,25 @@
 gtgtg</t>
   </si>
   <si>
-    <t>i) Mohammad Shahneawz Khan
+    <t>Air Ticket attached
+Fare-120000
+Tax-20000
+Total-140000
+New Yokr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) Mohammad Shahneawz Khan
 ii) S/o. Md. Shahabuddin Khan, Service holder (Retired)
 iii) 205, Avenue  De La Couroone
 1050 Brussels, Belgium
 Ph: 1008800
 shahneawz@gmail.com
-iv) 2147483647(Income Certificate not attached)</t>
+iv) 2147483647(Income Certificate not attached)
+</t>
+  </si>
+  <si>
+    <t>i)No
+ii)Certificate not Submitted</t>
   </si>
   <si>
     <t>Catholique University de Leuven (UCL)
@@ -264,9 +398,17 @@
 Leuven La Neuve, Belgium</t>
   </si>
   <si>
-    <t>i)Acceptance Letter not attached
+    <t xml:space="preserve">i)Acceptance Letter not attached
 Scholarship Letter not attached
-ii)----</t>
+ii)IELTS-6
+</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-
+Tax-
+Total-
+A B C D</t>
   </si>
 </sst>
 </file>
@@ -868,19 +1010,31 @@
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s"/>
-      <c r="E12" s="3" t="s"/>
-      <c r="F12" s="3" t="s"/>
-      <c r="G12" s="3" t="s"/>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3">
+        <v>23.34</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="3" t="s"/>
-      <c r="K12" s="3" t="s"/>
-      <c r="L12" s="3" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3">
+        <v>40001</v>
+      </c>
+      <c r="L12" s="3">
+        <v>27225</v>
+      </c>
       <c r="M12" s="5" t="s"/>
     </row>
     <row r="13" spans="1:13">
@@ -888,24 +1042,34 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s"/>
-      <c r="E13" s="3" t="s"/>
-      <c r="F13" s="3" t="s"/>
-      <c r="G13" s="3" t="s"/>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3" t="s"/>
-      <c r="K13" s="3" t="s"/>
-      <c r="L13" s="3" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3">
+        <v>90010</v>
+      </c>
+      <c r="L13" s="3">
+        <v>67500</v>
+      </c>
       <c r="M13" s="5" t="s"/>
     </row>
     <row r="14" spans="1:13">
@@ -913,24 +1077,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s"/>
-      <c r="E14" s="3" t="s"/>
-      <c r="F14" s="3" t="s"/>
-      <c r="G14" s="3" t="s"/>
+      <c r="D14" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="3" t="s"/>
-      <c r="K14" s="3" t="s"/>
-      <c r="L14" s="3" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3">
+        <v>40001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>27225</v>
+      </c>
       <c r="M14" s="5" t="s"/>
     </row>
     <row r="15" spans="1:13">
@@ -938,30 +1110,40 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s"/>
-      <c r="E15" s="3" t="s"/>
-      <c r="F15" s="3" t="s"/>
-      <c r="G15" s="3" t="s"/>
+      <c r="D15" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="3" t="s"/>
-      <c r="K15" s="3" t="s"/>
-      <c r="L15" s="3" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="3">
+        <v>40001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>27225</v>
+      </c>
       <c r="M15" s="5" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s"/>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -980,30 +1162,36 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s"/>
-      <c r="E17" s="3" t="s"/>
-      <c r="F17" s="3" t="s"/>
-      <c r="G17" s="3" t="s"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="3" t="s"/>
-      <c r="K17" s="3" t="s"/>
-      <c r="L17" s="3" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="3">
+        <v>89500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>67125</v>
+      </c>
       <c r="M17" s="5" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s"/>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1022,30 +1210,36 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s"/>
-      <c r="E19" s="3" t="s"/>
-      <c r="F19" s="3" t="s"/>
-      <c r="G19" s="3" t="s"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="3" t="s"/>
-      <c r="K19" s="3" t="s"/>
-      <c r="L19" s="3" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="3">
+        <v>65000</v>
+      </c>
+      <c r="L19" s="3">
+        <v>48750</v>
+      </c>
       <c r="M19" s="5" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s"/>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1064,24 +1258,30 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s"/>
-      <c r="E21" s="3" t="s"/>
-      <c r="F21" s="3" t="s"/>
-      <c r="G21" s="3" t="s"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="3" t="s"/>
-      <c r="K21" s="3" t="s"/>
-      <c r="L21" s="3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="3">
+        <v>80000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>60000</v>
+      </c>
       <c r="M21" s="5" t="s"/>
     </row>
     <row r="22" spans="1:13">
@@ -1089,30 +1289,36 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="3" t="s"/>
-      <c r="E22" s="3" t="s"/>
-      <c r="F22" s="3" t="s"/>
-      <c r="G22" s="3" t="s"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="3" t="s"/>
-      <c r="K22" s="3" t="s"/>
-      <c r="L22" s="3" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="3">
+        <v>89000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>66750</v>
+      </c>
       <c r="M22" s="5" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s"/>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1131,24 +1337,30 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="3" t="s"/>
-      <c r="E24" s="3" t="s"/>
-      <c r="F24" s="3" t="s"/>
-      <c r="G24" s="3" t="s"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="3" t="s"/>
-      <c r="K24" s="3" t="s"/>
-      <c r="L24" s="3" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="3">
+        <v>130000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>97500</v>
+      </c>
       <c r="M24" s="5" t="s"/>
     </row>
     <row r="25" spans="1:13">
@@ -1156,24 +1368,32 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3" t="s"/>
-      <c r="E25" s="3" t="s"/>
-      <c r="F25" s="3" t="s"/>
-      <c r="G25" s="3" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="D25" s="3">
+        <v>868</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="3" t="s"/>
-      <c r="K25" s="3" t="s"/>
-      <c r="L25" s="3" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="3">
+        <v>8001</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
       <c r="M25" s="5" t="s"/>
     </row>
   </sheetData>

--- a/files/bstf_report.xlsx
+++ b/files/bstf_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Economic Relations Division</t>
   </si>
@@ -149,12 +149,6 @@
 </t>
   </si>
   <si>
-    <t>2nd Division</t>
-  </si>
-  <si>
-    <t>3rd Division</t>
-  </si>
-  <si>
     <t>Politecnico di Milano
 SDFSDFSDF
 FSFSDF</t>
@@ -206,9 +200,6 @@
 salma@test.com
 iv) 400000(Income Certificate attached)
 </t>
-  </si>
-  <si>
-    <t>1st division</t>
   </si>
   <si>
     <t>University of Brussels
@@ -291,6 +282,9 @@
 junayeed3@gmail.com
 iv) 1000008834(Income Certificate attached)
 </t>
+  </si>
+  <si>
+    <t>1st division sdfds</t>
   </si>
   <si>
     <t>Politecnico di Milano, Italy
@@ -351,6 +345,44 @@
 Tax-3000
 Total-92000
 Turin</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) Gias Uddin Ahmed Choudhury
+ii) S/o. Nazir Uddin Ahmed Choudhury (Late), Not applicable
+iii) Karlstad University, Karlstad, Sweden
+Ph: 083152844
+t@t4.com
+iv) 360666(Income Certificate attached)
+</t>
+  </si>
+  <si>
+    <t>2nd Division</t>
+  </si>
+  <si>
+    <t>3rd Division</t>
+  </si>
+  <si>
+    <t>2nd Class</t>
+  </si>
+  <si>
+    <t>Karlstad University, karlstad, Sweden
+Master of Business Administration
+(Management)
+2010-2012, 2 years
+Susanna Svensson (Educational Officer)
+Karlstad University, Sweden
+0046-0547001322
+susanna.svensson@kau.se</t>
+  </si>
+  <si>
+    <t>Air Ticket attached
+Fare-52744
+Tax-7775
+Total-60519
+Stockholm</t>
   </si>
   <si>
     <t>United States</t>
@@ -804,7 +836,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -1033,7 +1065,7 @@
         <v>40001</v>
       </c>
       <c r="L12" s="3">
-        <v>27225</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5" t="s"/>
     </row>
@@ -1047,28 +1079,24 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K13" s="3">
-        <v>90010</v>
+        <v>90000</v>
       </c>
       <c r="L13" s="3">
-        <v>67500</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5" t="s"/>
     </row>
@@ -1077,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
@@ -1089,19 +1117,19 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K14" s="3">
         <v>40001</v>
       </c>
       <c r="L14" s="3">
-        <v>27225</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5" t="s"/>
     </row>
@@ -1110,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -1118,32 +1146,30 @@
       <c r="D15" s="3">
         <v>4.78</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K15" s="3">
         <v>40001</v>
       </c>
       <c r="L15" s="3">
-        <v>27225</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s"/>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1162,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -1172,26 +1198,26 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K17" s="3">
         <v>89500</v>
       </c>
       <c r="L17" s="3">
-        <v>67125</v>
+        <v>72635.77</v>
       </c>
       <c r="M17" s="5" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s"/>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1210,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
@@ -1220,26 +1246,26 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K19" s="3">
         <v>65000</v>
       </c>
       <c r="L19" s="3">
-        <v>48750</v>
+        <v>37289.08</v>
       </c>
       <c r="M19" s="5" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s"/>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1258,29 +1284,31 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K21" s="3">
         <v>80000</v>
       </c>
       <c r="L21" s="3">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5" t="s"/>
     </row>
@@ -1289,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -1299,26 +1327,26 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="K22" s="3">
         <v>89000</v>
       </c>
       <c r="L22" s="3">
-        <v>66750</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s"/>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1337,64 +1365,116 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="3">
+        <v>63</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="s"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s"/>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="3">
         <v>130000</v>
       </c>
-      <c r="L24" s="3">
-        <v>97500</v>
-      </c>
-      <c r="M24" s="5" t="s"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="3">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="L26" s="3">
+        <v>10075.15</v>
+      </c>
+      <c r="M26" s="5" t="s"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="3">
         <v>868</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="3">
         <v>8001</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="5" t="s"/>
+      <c r="M27" s="5" t="s"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1420,6 +1500,7 @@
     <mergeCell ref="B18:M18"/>
     <mergeCell ref="B20:M20"/>
     <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:M25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
